--- a/branches/master/StructureDefinition-ViralHepatitisModel.xlsx
+++ b/branches/master/StructureDefinition-ViralHepatitisModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="273">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T09:24:39+00:00</t>
+    <t>2022-08-09T07:13:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -713,6 +713,138 @@
   </si>
   <si>
     <t>Does the client have history of HIV treatment prior to enrollment?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.SignsAndSymptoms</t>
+  </si>
+  <si>
+    <t>List of Patient Signs and Symptoms</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.SignsAndSymptoms.WeightInKg</t>
+  </si>
+  <si>
+    <t>Patient weight in kg</t>
+  </si>
+  <si>
+    <t>What is the weigh of the patient in kg?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.SignsAndSymptoms.HeightInCM</t>
+  </si>
+  <si>
+    <t>Patient heigh in CM</t>
+  </si>
+  <si>
+    <t>What is the height of the patient in cm?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.SignsAndSymptoms.Jaundice</t>
+  </si>
+  <si>
+    <t>Signs and symptoms of Jaundice</t>
+  </si>
+  <si>
+    <t>Does the patient show signs and symptoms of Jaundice?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.SignsAndSymptoms.Coagulopathy</t>
+  </si>
+  <si>
+    <t>Signs and symptoms of Coagulopathy</t>
+  </si>
+  <si>
+    <t>Does the patient show signs and symptoms of Coagulopathy?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.SignsAndSymptoms.Ascites</t>
+  </si>
+  <si>
+    <t>Signs and symptoms of Ascites</t>
+  </si>
+  <si>
+    <t>Does the patient show signs and symptoms of Ascites?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.SignsAndSymptoms.VaricealHemorrhage</t>
+  </si>
+  <si>
+    <t>Signs and symptoms of Variceal Hemorrhage</t>
+  </si>
+  <si>
+    <t>Does the patient show signs and symptoms of Variceal Hemorrhage?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.SignsAndSymptoms.HepaticEncephalopathy</t>
+  </si>
+  <si>
+    <t>Signs and symptoms of Hepatic Encephalopathy</t>
+  </si>
+  <si>
+    <t>Does the patient show signs and symptoms of Hepatic Encephalopathy?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.SignsAndSymptoms.Hepatomegaly</t>
+  </si>
+  <si>
+    <t>Signs and symptoms of Hepatomegaly</t>
+  </si>
+  <si>
+    <t>Does the patient show signs and symptoms of Hepatomegaly?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.SignsAndSymptoms.Splenomegaly</t>
+  </si>
+  <si>
+    <t>Signs and symptoms of Splenomegaly</t>
+  </si>
+  <si>
+    <t>Does the patient show signs and symptoms of Splenomegaly?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.SignsAndSymptoms.Pruritus</t>
+  </si>
+  <si>
+    <t>Signs and symptoms of Pruritus</t>
+  </si>
+  <si>
+    <t>Does the patient show signs and symptoms of Pruritus?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.SignsAndSymptoms.Fatigue</t>
+  </si>
+  <si>
+    <t>Signs and symptoms of Fatigue</t>
+  </si>
+  <si>
+    <t>Does the patient show signs and symptoms of Fatigue?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.SignsAndSymptoms.SpiderAngiomata</t>
+  </si>
+  <si>
+    <t>Signs and symptoms of  Spider Angiomata</t>
+  </si>
+  <si>
+    <t>Does the patient show signs and symptoms of Spider Angiomata?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.SignsAndSymptoms.PalmarErythema</t>
+  </si>
+  <si>
+    <t>Signs and symptoms of Palmar Erythema</t>
+  </si>
+  <si>
+    <t>Does the patient show signs and symptoms of Palmar Erythema?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.SignsAndSymptoms.Other</t>
+  </si>
+  <si>
+    <t>Other signs and symptoms</t>
+  </si>
+  <si>
+    <t>Does the patient show other signs and symptoms not included in the list?</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ59"/>
+  <dimension ref="A1:AJ74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6974,6 +7106,1506 @@
         <v>72</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/branches/master/StructureDefinition-ViralHepatitisModel.xlsx
+++ b/branches/master/StructureDefinition-ViralHepatitisModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3111" uniqueCount="323">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T07:13:13+00:00</t>
+    <t>2022-08-09T08:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -845,6 +845,156 @@
   </si>
   <si>
     <t>Does the patient show other signs and symptoms not included in the list?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest</t>
+  </si>
+  <si>
+    <t>List of Laboratory Test of the Patient</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.HBsAgDateDone</t>
+  </si>
+  <si>
+    <t>Date when the HBsAG Test was done</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.HBsAgResult</t>
+  </si>
+  <si>
+    <t>HBsAG Test Result (Positive or Negative)</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.HBeAgDateDone</t>
+  </si>
+  <si>
+    <t>Date when the HBeAG Test was done</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.HBeAgResult</t>
+  </si>
+  <si>
+    <t>HBeAg Test Result (Positive or Negative)</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.AntiHCVDateDone</t>
+  </si>
+  <si>
+    <t>Date when the Anti-HCV Test was done</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.AntiHCVResult</t>
+  </si>
+  <si>
+    <t>AntiHCV Test Result (Reactive or Non-reactive)</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.HCVRNAQualitativeDateDone</t>
+  </si>
+  <si>
+    <t>Date when the HCV-RNA (Quali) Test was done</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.HCVRNAQualitativeResult</t>
+  </si>
+  <si>
+    <t>HCV-RNA (Quali) Test Result (Positive or Negative)</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.HCVRNAQuantitativeDateDone</t>
+  </si>
+  <si>
+    <t>Date when the HCV-RNA (Quanti) IU/mL Test was done</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.HCVRNAQuantitativeResult</t>
+  </si>
+  <si>
+    <t>HCV-RNA (Quali) Test Result (IU/mL)</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.HBVDNADateDone</t>
+  </si>
+  <si>
+    <t>Date when the HBV DNA (IU/mL) Test was done</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.HBVDNAResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HBV DNA Test Result (IU/mL)</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.ASTSGOTDateDone</t>
+  </si>
+  <si>
+    <t>Date when the AST (SGOT) (IU/L) Test was done</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.ASTSGOTResult</t>
+  </si>
+  <si>
+    <t>AST (SGOT) Test Result (IU/L)</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.ALTSGPTDateDone</t>
+  </si>
+  <si>
+    <t>Date when the ALT (SGPT) (IU/L) Test was done</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.ALTSGPTResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALT (SGPT) Test Result (IU/L) </t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.TotalBilirubinDateDone</t>
+  </si>
+  <si>
+    <t>Date when the Total Bilirubin (mg/dL) Test was done</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.TotalBilirubinResult</t>
+  </si>
+  <si>
+    <t>Total Bilirubin Test Result (mg/dL)</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.AlbuminDateDone</t>
+  </si>
+  <si>
+    <t>Date when the Albumin Test was done</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.AlbuminResult</t>
+  </si>
+  <si>
+    <t>Albumin Test Result (g/dL)</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.PlateletCountDateDone</t>
+  </si>
+  <si>
+    <t>Date when the Platelet Count Test was done</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.PlateletCountResult</t>
+  </si>
+  <si>
+    <t>Platelet Count Test Result (10*9/L)</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.PTINRDateDone</t>
+  </si>
+  <si>
+    <t>Date when the PT INR Test was done</t>
+  </si>
+  <si>
+    <t>ViralHepatitisModel.LaboratoryTest.PTINRResult</t>
+  </si>
+  <si>
+    <t>PT INR Test Result (sec)</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ74"/>
+  <dimension ref="A1:AJ99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8606,6 +8756,2506 @@
         <v>72</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
